--- a/fechamento_2021/fechamento_setembro/NegativoTesteSetembro.xlsx
+++ b/fechamento_2021/fechamento_setembro/NegativoTesteSetembro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d788796\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_setembro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C49CE2-6049-48CE-BDCE-2AEC7DC8F263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB8F1F1-B09B-4432-A392-9251AF7F4997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDCB9376-96B8-497C-8A58-A3D5BDCCC184}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="243">
   <si>
     <t>ARTHUR GABRIEL MOURA</t>
   </si>
@@ -442,6 +442,318 @@
   </si>
   <si>
     <t>VALDICE LIMA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ALEXANDRA DOS SANTOS MORAIS</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>ANDRESSA DE OLIVEIRA VIANA GONCALVES</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dispneia, Dor de Garganta, Disturbios Olfativos</t>
+  </si>
+  <si>
+    <t>covg21030078</t>
+  </si>
+  <si>
+    <t>ANGELO MAXIMO DA COSTA</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Febre, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>ANNA CAROLINA DA SILVA SANTOS</t>
+  </si>
+  <si>
+    <t>OVG21030078</t>
+  </si>
+  <si>
+    <t>ANTONIO ANDERSON BARBOSA SILVA</t>
+  </si>
+  <si>
+    <t>Febre, Dor de Garganta, Coriza</t>
+  </si>
+  <si>
+    <t>BERNARDO MACHADO BRAGA</t>
+  </si>
+  <si>
+    <t>Coriza, Disturbios Olfativos, Tosse</t>
+  </si>
+  <si>
+    <t>BRENDA PALMA DE SOUZA XAVIER</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse</t>
+  </si>
+  <si>
+    <t>DANIEL LESSA COSTA</t>
+  </si>
+  <si>
+    <t>ELAINE CRISTINA FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Dor de Garganta, Coriza</t>
+  </si>
+  <si>
+    <t>ESTER CAMASSARI BORGES</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>FERNANDO MASSAHIRO SATO</t>
+  </si>
+  <si>
+    <t>Disturbios Gustativos, Dor de Cabeca, Tosse, Febre, Dispneia, Outros</t>
+  </si>
+  <si>
+    <t>41ADG278A</t>
+  </si>
+  <si>
+    <t>GABRIEL BARBOSA DOMINGOS</t>
+  </si>
+  <si>
+    <t>Disturbios Olfativos, Disturbios Gustativos, Dor de Cabeca, Tosse, Dispneia, Outros</t>
+  </si>
+  <si>
+    <t>41adg325a</t>
+  </si>
+  <si>
+    <t>GABRIEL DA SILVA BRITO</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Febre</t>
+  </si>
+  <si>
+    <t>GABRIELY RAQUEL GOMES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Dor de Garganta, Dispneia</t>
+  </si>
+  <si>
+    <t>GABRIELY VIDA ESTEVES</t>
+  </si>
+  <si>
+    <t>GRACILENE SILVA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>ILDA NUNES BASSI OMINE</t>
+  </si>
+  <si>
+    <t>LEANDRO MARQUES LOBATO</t>
+  </si>
+  <si>
+    <t>Dor de Garganta, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>LEONARDO MARQUES LOBATO</t>
+  </si>
+  <si>
+    <t>LUANA MEI BASSI OMINE</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Dispneia</t>
+  </si>
+  <si>
+    <t>MAISA DA SILVA NUNES</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Tosse, Febre, Dispneia, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>MEDIPRO COME</t>
+  </si>
+  <si>
+    <t>MARA ALVES ROSA</t>
+  </si>
+  <si>
+    <t>MARCIO DE JESUS FERNANDES SILVA</t>
+  </si>
+  <si>
+    <t>Coriza, Disturbios Gustativos, Tosse, Febre, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>MARCOS AURELIO MACEDO PEREIRA</t>
+  </si>
+  <si>
+    <t>MARIA DE LOURDES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>NATASHA CORREA DE BRITO</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>COV611030078</t>
+  </si>
+  <si>
+    <t>NICOLLE FELICIO PADILHA CANDIDO</t>
+  </si>
+  <si>
+    <t>Disturbios Gustativos, Dor de Cabeca, Tosse, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>PATRICIA TEIXEIRA DE ALMEIDA JESUS</t>
+  </si>
+  <si>
+    <t>PEDRO AVELINO NEVES</t>
+  </si>
+  <si>
+    <t>COVG20310</t>
+  </si>
+  <si>
+    <t>RAFAEL TENORIO</t>
+  </si>
+  <si>
+    <t>Tosse, Dor de Garganta, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>ROBERTO COELHO DA SILVA FILHO</t>
+  </si>
+  <si>
+    <t>ROBSON DESIDERIO DE SOUZA SANTANA</t>
+  </si>
+  <si>
+    <t>Coriza, Febre</t>
+  </si>
+  <si>
+    <t>RONALDO ADRIANO ROSA</t>
+  </si>
+  <si>
+    <t>Coriza, Tosse, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>ROSANA MARIA DA SILVA BRONZE</t>
+  </si>
+  <si>
+    <t>Coriza, Outros</t>
+  </si>
+  <si>
+    <t>SIMONE RODRIGUES SILVA</t>
+  </si>
+  <si>
+    <t>TATIANE FATIMA DE ALENCAR</t>
+  </si>
+  <si>
+    <t>WAGNER PEREIRA GONCALVES</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Dor de Garganta, Outros</t>
+  </si>
+  <si>
+    <t>WILBENS CHARLESTON</t>
+  </si>
+  <si>
+    <t>ALANDERSON CONCEICAO SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Febre, Dispneia</t>
+  </si>
+  <si>
+    <t>ARNALDO DOS SANTOS PINHO MONTEIRO</t>
+  </si>
+  <si>
+    <t>CASSIA APARECIDA LIMA DA SILVA</t>
+  </si>
+  <si>
+    <t>Tosse</t>
+  </si>
+  <si>
+    <t>DANIELE RIBEIRO ALVES</t>
+  </si>
+  <si>
+    <t>Dispneia, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>ENZO LEONARDO DA SILVA BRITO</t>
+  </si>
+  <si>
+    <t>GABRIELA ESMERALDA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>GABRIELA HELOISA DE ALMEIDA SILVA</t>
+  </si>
+  <si>
+    <t>GABRIELA RODRIGUES CARDONA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse, Febre</t>
+  </si>
+  <si>
+    <t>JACI MOREIRA NIZARA</t>
+  </si>
+  <si>
+    <t>JOSE MAURICIO LARA</t>
+  </si>
+  <si>
+    <t>JOYCE DA SILVA BALBINO</t>
+  </si>
+  <si>
+    <t>JULIO BORGES DA SILVA</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca, Tosse</t>
+  </si>
+  <si>
+    <t>MARGOT LUIZ JULIAO</t>
+  </si>
+  <si>
+    <t>Tosse, Febre, Dispneia</t>
+  </si>
+  <si>
+    <t>RAFAEL TEIXEIRA DE LIMA</t>
+  </si>
+  <si>
+    <t>RENATO SANTOS VIEIRA</t>
+  </si>
+  <si>
+    <t>SHIRLEI DA CONCEICAO SENA</t>
+  </si>
+  <si>
+    <t>THAYNA DE ABREU MAIA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>VALENTINA MORAES CARDOSO COSTA</t>
+  </si>
+  <si>
+    <t>Tosse, Outros</t>
+  </si>
+  <si>
+    <t>VANDA APARECIDA DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>VANESSA NASCIMENTO PORTO PEDROSO</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>YASMIN VITORIA DE ALMEIDA LIMA</t>
+  </si>
+  <si>
+    <t>Coriza, Dor de Garganta</t>
+  </si>
+  <si>
+    <t>KAUAN ESPOSITO DA CONCEICAO</t>
+  </si>
+  <si>
+    <t>Dor de Cabeca</t>
+  </si>
+  <si>
+    <t>SILVANA RODRIGUES DA CRUZ</t>
   </si>
 </sst>
 </file>
@@ -796,10 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A45BF7-4887-4BCB-8552-8FC88E71975F}">
-  <dimension ref="A1:BI34"/>
+  <dimension ref="A1:BI96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3516,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3521100089762</v>
       </c>
@@ -3266,7 +3578,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>3521100327837</v>
       </c>
@@ -3328,7 +3640,4815 @@
         <v>10</v>
       </c>
     </row>
+    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>3521101069743</v>
+      </c>
+      <c r="B35" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="3">
+        <v>26893</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44458</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="2">
+        <v>2102467162</v>
+      </c>
+      <c r="H35" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>21030062</v>
+      </c>
+      <c r="AL35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AO35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>21030062</v>
+      </c>
+      <c r="AQ35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AX35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY35" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ35" s="3">
+        <v>44460</v>
+      </c>
+      <c r="BA35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI35" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>3521100575131</v>
+      </c>
+      <c r="B36" s="3">
+        <v>44454</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" s="3">
+        <v>40414</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44448</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2102597704</v>
+      </c>
+      <c r="H36" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="3">
+        <v>44455</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AJ36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AR36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT36" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AU36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BH36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI36" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>3521101275509</v>
+      </c>
+      <c r="B37" s="3">
+        <v>44462</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="3">
+        <v>27395</v>
+      </c>
+      <c r="E37" s="3">
+        <v>44456</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="2">
+        <v>2102654267</v>
+      </c>
+      <c r="H37" s="3">
+        <v>44462</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J37" s="3">
+        <v>44461</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AJ37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AL37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AO37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AQ37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT37" s="3">
+        <v>44461</v>
+      </c>
+      <c r="BG37" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI37" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>3521101279618</v>
+      </c>
+      <c r="B38" s="3">
+        <v>44462</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="3">
+        <v>35945</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44458</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2102654268</v>
+      </c>
+      <c r="H38" s="3">
+        <v>44463</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AJ38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AO38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="BH38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI38" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3521100582201</v>
+      </c>
+      <c r="B39" s="3">
+        <v>44455</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="3">
+        <v>38923</v>
+      </c>
+      <c r="E39" s="3">
+        <v>44453</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2102309480</v>
+      </c>
+      <c r="H39" s="3">
+        <v>44455</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="3">
+        <v>44454</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AJ39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM39" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AR39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT39" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AU39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI39" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>3521100600072</v>
+      </c>
+      <c r="B40" s="3">
+        <v>44455</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="3">
+        <v>43752</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44446</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2102597754</v>
+      </c>
+      <c r="H40" s="3">
+        <v>44455</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="3">
+        <v>44455</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AJ40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AO40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT40" s="3">
+        <v>44455</v>
+      </c>
+      <c r="BG40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BH40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI40" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3521100882672</v>
+      </c>
+      <c r="B41" s="3">
+        <v>44459</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="3">
+        <v>43829</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44457</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2102625240</v>
+      </c>
+      <c r="H41" s="3">
+        <v>44460</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AJ41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AO41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT41" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AX41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ41" s="3">
+        <v>44459</v>
+      </c>
+      <c r="BA41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BH41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI41" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3521100769398</v>
+      </c>
+      <c r="B42" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="3">
+        <v>28546</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44454</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2102625231</v>
+      </c>
+      <c r="H42" s="3">
+        <v>44459</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AJ42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK42" s="2">
+        <v>21030062</v>
+      </c>
+      <c r="AL42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT42" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AU42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV42" s="2">
+        <v>21030062</v>
+      </c>
+      <c r="AW42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ42" s="3">
+        <v>44456</v>
+      </c>
+      <c r="BA42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI42" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>3521100757071</v>
+      </c>
+      <c r="B43" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="3">
+        <v>30658</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2102654250</v>
+      </c>
+      <c r="H43" s="3">
+        <v>44459</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AJ43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AO43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT43" s="3">
+        <v>44456</v>
+      </c>
+      <c r="BG43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BH43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI43" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>3521100901557</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44459</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="3">
+        <v>41116</v>
+      </c>
+      <c r="E44" s="3">
+        <v>44453</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2102625241</v>
+      </c>
+      <c r="H44" s="3">
+        <v>44460</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J44" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AJ44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN44" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AO44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT44" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AX44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ44" s="3">
+        <v>44459</v>
+      </c>
+      <c r="BA44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BH44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI44" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>3521101066649</v>
+      </c>
+      <c r="B45" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="3">
+        <v>28523</v>
+      </c>
+      <c r="E45" s="3">
+        <v>44443</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2102617184</v>
+      </c>
+      <c r="H45" s="3">
+        <v>44448</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI45" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AJ45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN45" s="3">
+        <v>44448</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP45" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI45" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>3521100574050</v>
+      </c>
+      <c r="B46" s="3">
+        <v>44455</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="3">
+        <v>35920</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44450</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2102651556</v>
+      </c>
+      <c r="H46" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP46" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BG46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BH46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI46" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>3521101670272</v>
+      </c>
+      <c r="B47" s="3">
+        <v>44467</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="3">
+        <v>36157</v>
+      </c>
+      <c r="E47" s="3">
+        <v>44461</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2102444378</v>
+      </c>
+      <c r="H47" s="3">
+        <v>44468</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J47" s="3">
+        <v>44467</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AJ47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN47" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AR47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT47" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AU47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG47" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI47" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>3521100607417</v>
+      </c>
+      <c r="B48" s="3">
+        <v>44455</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="3">
+        <v>36258</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2102444367</v>
+      </c>
+      <c r="H48" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J48" s="3">
+        <v>44455</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AJ48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN48" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AR48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT48" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AU48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF48" s="3">
+        <v>44460</v>
+      </c>
+      <c r="BG48" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BH48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI48" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>3521100759375</v>
+      </c>
+      <c r="B49" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="3">
+        <v>37857</v>
+      </c>
+      <c r="E49" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2102654251</v>
+      </c>
+      <c r="H49" s="3">
+        <v>44459</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J49" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AJ49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN49" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT49" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AX49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY49" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ49" s="3">
+        <v>44456</v>
+      </c>
+      <c r="BA49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG49" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI49" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>3521101352084</v>
+      </c>
+      <c r="B50" s="3">
+        <v>44463</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="3">
+        <v>32278</v>
+      </c>
+      <c r="E50" s="3">
+        <v>44460</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2102616495</v>
+      </c>
+      <c r="H50" s="3">
+        <v>44448</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J50" s="3">
+        <v>44463</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AJ50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AR50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT50" s="3">
+        <v>44463</v>
+      </c>
+      <c r="AU50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF50" s="3">
+        <v>44467</v>
+      </c>
+      <c r="BG50" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BH50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI50" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>3521101073172</v>
+      </c>
+      <c r="B51" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="3">
+        <v>23697</v>
+      </c>
+      <c r="E51" s="3">
+        <v>44457</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2102654277</v>
+      </c>
+      <c r="H51" s="3">
+        <v>44467</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI51" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK51" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AL51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN51" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP51" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AQ51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT51" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AX51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ51" s="3">
+        <v>44460</v>
+      </c>
+      <c r="BA51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG51" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI51" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>3521101645455</v>
+      </c>
+      <c r="B52" s="3">
+        <v>44467</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="3">
+        <v>23697</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44461</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2102654277</v>
+      </c>
+      <c r="H52" s="3">
+        <v>44467</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J52" s="3">
+        <v>44466</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AJ52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN52" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT52" s="3">
+        <v>44466</v>
+      </c>
+      <c r="BG52" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI52" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>3521101646008</v>
+      </c>
+      <c r="B53" s="3">
+        <v>44467</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="3">
+        <v>30254</v>
+      </c>
+      <c r="E53" s="3">
+        <v>44464</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2102444377</v>
+      </c>
+      <c r="H53" s="3">
+        <v>44468</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J53" s="3">
+        <v>44467</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI53" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AJ53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN53" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AR53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT53" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AU53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF53" s="3">
+        <v>44490</v>
+      </c>
+      <c r="BG53" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI53" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>3521101763258</v>
+      </c>
+      <c r="B54" s="3">
+        <v>44468</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="3">
+        <v>31463</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44468</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2102467018</v>
+      </c>
+      <c r="H54" s="3">
+        <v>44469</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" s="3">
+        <v>44468</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI54" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AJ54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN54" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AR54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT54" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AU54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI54" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>3521101072908</v>
+      </c>
+      <c r="B55" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="3">
+        <v>37606</v>
+      </c>
+      <c r="E55" s="3">
+        <v>44458</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2102672829</v>
+      </c>
+      <c r="H55" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J55" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI55" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK55" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AL55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN55" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AO55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP55" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AQ55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT55" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AX55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ55" s="3">
+        <v>44460</v>
+      </c>
+      <c r="BA55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI55" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3521101066457</v>
+      </c>
+      <c r="B56" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="3">
+        <v>32406</v>
+      </c>
+      <c r="E56" s="3">
+        <v>44458</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2102467164</v>
+      </c>
+      <c r="H56" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J56" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI56" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK56" s="2">
+        <v>21030062</v>
+      </c>
+      <c r="AL56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN56" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AO56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP56" s="2">
+        <v>21030062</v>
+      </c>
+      <c r="AQ56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT56" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AX56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ56" s="3">
+        <v>44460</v>
+      </c>
+      <c r="BA56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BH56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI56" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>3521101777859</v>
+      </c>
+      <c r="B57" s="3">
+        <v>44468</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="3">
+        <v>30761</v>
+      </c>
+      <c r="E57" s="3">
+        <v>44465</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2102548307</v>
+      </c>
+      <c r="H57" s="3">
+        <v>44469</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J57" s="3">
+        <v>44468</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI57" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AJ57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI57" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>3521101862532</v>
+      </c>
+      <c r="B58" s="3">
+        <v>44469</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="3">
+        <v>26546</v>
+      </c>
+      <c r="E58" s="3">
+        <v>44460</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2102654284</v>
+      </c>
+      <c r="H58" s="3">
+        <v>44469</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J58" s="3">
+        <v>44468</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI58" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AJ58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN58" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AO58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT58" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AX58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ58" s="3">
+        <v>44468</v>
+      </c>
+      <c r="BA58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG58" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI58" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>3521101649926</v>
+      </c>
+      <c r="B59" s="3">
+        <v>44467</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59" s="3">
+        <v>33714</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44461</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2102654279</v>
+      </c>
+      <c r="H59" s="3">
+        <v>44467</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J59" s="3">
+        <v>44467</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AJ59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN59" s="3">
+        <v>44467</v>
+      </c>
+      <c r="AO59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT59" s="3">
+        <v>44467</v>
+      </c>
+      <c r="BG59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI59" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>3521101127559</v>
+      </c>
+      <c r="B60" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" s="3">
+        <v>25074</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44453</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2102654258</v>
+      </c>
+      <c r="H60" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI60" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK60" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AL60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN60" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AR60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT60" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV60" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AW60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG60" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI60" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>3521101761953</v>
+      </c>
+      <c r="B61" s="3">
+        <v>44468</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="3">
+        <v>33661</v>
+      </c>
+      <c r="E61" s="3">
+        <v>44463</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="2">
+        <v>2102444379</v>
+      </c>
+      <c r="H61" s="3">
+        <v>44469</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J61" s="3">
+        <v>44468</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AJ61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN61" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AR61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT61" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AU61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV61" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG61" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI61" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>3521101006792</v>
+      </c>
+      <c r="B62" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="3">
+        <v>34656</v>
+      </c>
+      <c r="E62" s="3">
+        <v>44455</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" s="2">
+        <v>2102444371</v>
+      </c>
+      <c r="H62" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN62" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AO62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP62" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD62" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF62" s="3">
+        <v>44468</v>
+      </c>
+      <c r="BG62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BH62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI62" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>3521101187675</v>
+      </c>
+      <c r="B63" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="3">
+        <v>28841</v>
+      </c>
+      <c r="E63" s="3">
+        <v>44456</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" s="2">
+        <v>2102672831</v>
+      </c>
+      <c r="H63" s="3">
+        <v>44462</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J63" s="3">
+        <v>44461</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI63" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AJ63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK63" s="2">
+        <v>21030062</v>
+      </c>
+      <c r="AL63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN63" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AO63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP63" s="2">
+        <v>21030062</v>
+      </c>
+      <c r="AQ63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT63" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AX63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ63" s="3">
+        <v>44461</v>
+      </c>
+      <c r="BA63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BH63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI63" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>3521101571121</v>
+      </c>
+      <c r="B64" s="3">
+        <v>44466</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="3">
+        <v>20919</v>
+      </c>
+      <c r="E64" s="3">
+        <v>44460</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" s="2">
+        <v>2102676633</v>
+      </c>
+      <c r="H64" s="3">
+        <v>44467</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J64" s="3">
+        <v>44466</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI64" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AJ64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN64" s="3">
+        <v>44466</v>
+      </c>
+      <c r="AO64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP64" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT64" s="3">
+        <v>44466</v>
+      </c>
+      <c r="BG64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI64" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>3521100571010</v>
+      </c>
+      <c r="B65" s="3">
+        <v>44455</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="3">
+        <v>36398</v>
+      </c>
+      <c r="E65" s="3">
+        <v>44451</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G65" s="2">
+        <v>2102309479</v>
+      </c>
+      <c r="H65" s="3">
+        <v>44455</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J65" s="3">
+        <v>44454</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI65" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AJ65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM65" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN65" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AR65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT65" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AU65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI65" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>3521100575300</v>
+      </c>
+      <c r="B66" s="3">
+        <v>44455</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D66" s="3">
+        <v>30042</v>
+      </c>
+      <c r="E66" s="3">
+        <v>44451</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2102309481</v>
+      </c>
+      <c r="H66" s="3">
+        <v>44455</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" s="3">
+        <v>44454</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI66" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AJ66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN66" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AR66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT66" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AU66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG66" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BH66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI66" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>3521100925894</v>
+      </c>
+      <c r="B67" s="3">
+        <v>44459</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="3">
+        <v>33379</v>
+      </c>
+      <c r="E67" s="3">
+        <v>44458</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G67" s="2">
+        <v>2102654254</v>
+      </c>
+      <c r="H67" s="3">
+        <v>44460</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J67" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI67" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AJ67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK67" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AL67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN67" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AO67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AQ67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT67" s="3">
+        <v>44459</v>
+      </c>
+      <c r="BG67" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI67" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>3521101779790</v>
+      </c>
+      <c r="B68" s="3">
+        <v>44468</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="3">
+        <v>30922</v>
+      </c>
+      <c r="E68" s="3">
+        <v>44462</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G68" s="2">
+        <v>2102548308</v>
+      </c>
+      <c r="H68" s="3">
+        <v>44469</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J68" s="3">
+        <v>44468</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI68" s="3">
+        <v>44468</v>
+      </c>
+      <c r="AJ68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="BG68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="BH68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI68" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>3521101172670</v>
+      </c>
+      <c r="B69" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D69" s="3">
+        <v>23071</v>
+      </c>
+      <c r="E69" s="3">
+        <v>44458</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G69" s="2">
+        <v>2102587432</v>
+      </c>
+      <c r="H69" s="3">
+        <v>44462</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J69" s="3">
+        <v>44461</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI69" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AJ69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI69" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>3521101137723</v>
+      </c>
+      <c r="B70" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" s="3">
+        <v>31283</v>
+      </c>
+      <c r="E70" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2102654257</v>
+      </c>
+      <c r="H70" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J70" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI70" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK70" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AL70" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN70" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AR70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT70" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV70" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AW70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ70" s="3">
+        <v>44460</v>
+      </c>
+      <c r="BA70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BH70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI70" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>3521100712674</v>
+      </c>
+      <c r="B71" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="3">
+        <v>28366</v>
+      </c>
+      <c r="E71" s="3">
+        <v>44453</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2102444370</v>
+      </c>
+      <c r="H71" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J71" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI71" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AJ71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM71" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN71" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT71" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AU71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD71" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF71" s="3">
+        <v>44468</v>
+      </c>
+      <c r="BG71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI71" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>3521101228645</v>
+      </c>
+      <c r="B72" s="3">
+        <v>44462</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" s="3">
+        <v>33262</v>
+      </c>
+      <c r="E72" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G72" s="2">
+        <v>2102654260</v>
+      </c>
+      <c r="H72" s="3">
+        <v>44462</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J72" s="3">
+        <v>44459</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI72" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AJ72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK72" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AL72" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN72" s="3">
+        <v>44459</v>
+      </c>
+      <c r="AR72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT72" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AU72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV72" s="2">
+        <v>21030078</v>
+      </c>
+      <c r="AW72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG72" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI72" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>3521100973984</v>
+      </c>
+      <c r="B73" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="3">
+        <v>30322</v>
+      </c>
+      <c r="E73" s="3">
+        <v>44449</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G73" s="2">
+        <v>2102467019</v>
+      </c>
+      <c r="H73" s="3">
+        <v>44460</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J73" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI73" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AJ73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM73" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN73" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AR73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT73" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV73" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD73" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF73" s="3">
+        <v>44468</v>
+      </c>
+      <c r="BG73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BH73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI73" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>352199901654</v>
+      </c>
+      <c r="B74" s="3">
+        <v>44447</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="3">
+        <v>35286</v>
+      </c>
+      <c r="E74" s="3">
+        <v>44446</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2102567374</v>
+      </c>
+      <c r="H74" s="3">
+        <v>44448</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J74" s="3">
+        <v>44447</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN74" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AR74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT74" s="3">
+        <v>44447</v>
+      </c>
+      <c r="AU74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG74" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI74" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>3521101037188</v>
+      </c>
+      <c r="B75" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="3">
+        <v>30987</v>
+      </c>
+      <c r="E75" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G75" s="2">
+        <v>2102467157</v>
+      </c>
+      <c r="H75" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J75" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL75" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN75" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AR75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT75" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI75" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>3521100746961</v>
+      </c>
+      <c r="B76" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="3">
+        <v>29610</v>
+      </c>
+      <c r="E76" s="3">
+        <v>44455</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G76" s="2">
+        <v>2102625220</v>
+      </c>
+      <c r="H76" s="3">
+        <v>44459</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J76" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL76" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN76" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT76" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AU76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BH76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI76" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>3521101159972</v>
+      </c>
+      <c r="B77" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D77" s="3">
+        <v>32331</v>
+      </c>
+      <c r="E77" s="3">
+        <v>44447</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G77" s="2">
+        <v>2102672833</v>
+      </c>
+      <c r="H77" s="3">
+        <v>44462</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J77" s="3">
+        <v>44461</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN77" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AR77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT77" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AU77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG77" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BH77" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI77" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>3521101272407</v>
+      </c>
+      <c r="B78" s="3">
+        <v>44462</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D78" s="3">
+        <v>43444</v>
+      </c>
+      <c r="E78" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>2102672849</v>
+      </c>
+      <c r="H78" s="3">
+        <v>44463</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J78" s="3">
+        <v>44462</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN78" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AR78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT78" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AU78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG78" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BH78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI78" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>3521101052212</v>
+      </c>
+      <c r="B79" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" s="3">
+        <v>37419</v>
+      </c>
+      <c r="E79" s="3">
+        <v>44457</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G79" s="2">
+        <v>2102467160</v>
+      </c>
+      <c r="H79" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J79" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL79" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN79" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AR79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT79" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG79" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BH79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI79" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>3521100730848</v>
+      </c>
+      <c r="B80" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D80" s="3">
+        <v>34503</v>
+      </c>
+      <c r="E80" s="3">
+        <v>44454</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G80" s="2">
+        <v>2102625250</v>
+      </c>
+      <c r="H80" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J80" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN80" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT80" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AU80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG80" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BH80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI80" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>3521101145922</v>
+      </c>
+      <c r="B81" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D81" s="3">
+        <v>34062</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44454</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G81" s="2">
+        <v>2102672854</v>
+      </c>
+      <c r="H81" s="3">
+        <v>44462</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J81" s="3">
+        <v>44461</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN81" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AR81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS81" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT81" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AU81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG81" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI81" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>3521101272887</v>
+      </c>
+      <c r="B82" s="3">
+        <v>44462</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="3">
+        <v>28056</v>
+      </c>
+      <c r="E82" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" s="2">
+        <v>2102672850</v>
+      </c>
+      <c r="H82" s="3">
+        <v>44463</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J82" s="3">
+        <v>44462</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN82" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AR82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS82" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT82" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AU82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG82" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="BH82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI82" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>3521100745452</v>
+      </c>
+      <c r="B83" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="3">
+        <v>24926</v>
+      </c>
+      <c r="E83" s="3">
+        <v>44455</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" s="2">
+        <v>2102625230</v>
+      </c>
+      <c r="H83" s="3">
+        <v>44459</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J83" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL83" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN83" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS83" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT83" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AU83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG83" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BH83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI83" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>3521101038420</v>
+      </c>
+      <c r="B84" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="3">
+        <v>30937</v>
+      </c>
+      <c r="E84" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="2">
+        <v>2102467154</v>
+      </c>
+      <c r="H84" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J84" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL84" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN84" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AR84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT84" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG84" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BH84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI84" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>3521101272007</v>
+      </c>
+      <c r="B85" s="3">
+        <v>44462</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" s="3">
+        <v>30479</v>
+      </c>
+      <c r="E85" s="3">
+        <v>44455</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G85" s="2">
+        <v>2102672848</v>
+      </c>
+      <c r="H85" s="3">
+        <v>44463</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" s="3">
+        <v>44462</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN85" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AR85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT85" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AU85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI85" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>3521101145043</v>
+      </c>
+      <c r="B86" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D86" s="3">
+        <v>35860</v>
+      </c>
+      <c r="E86" s="3">
+        <v>44454</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G86" s="2">
+        <v>2102672832</v>
+      </c>
+      <c r="H86" s="3">
+        <v>44462</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J86" s="3">
+        <v>44461</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL86" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN86" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AR86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS86" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT86" s="3">
+        <v>44461</v>
+      </c>
+      <c r="AU86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG86" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI86" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>3521100729810</v>
+      </c>
+      <c r="B87" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D87" s="3">
+        <v>33538</v>
+      </c>
+      <c r="E87" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" s="2">
+        <v>2102625247</v>
+      </c>
+      <c r="H87" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN87" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS87" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT87" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AU87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="BH87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI87" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>3521101038951</v>
+      </c>
+      <c r="B88" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D88" s="3">
+        <v>30113</v>
+      </c>
+      <c r="E88" s="3">
+        <v>44459</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G88" s="2">
+        <v>2102467155</v>
+      </c>
+      <c r="H88" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J88" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN88" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AR88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT88" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BH88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI88" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>3521100746230</v>
+      </c>
+      <c r="B89" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" s="3">
+        <v>38254</v>
+      </c>
+      <c r="E89" s="3">
+        <v>44455</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="2">
+        <v>2102625221</v>
+      </c>
+      <c r="H89" s="3">
+        <v>44459</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J89" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN89" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS89" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT89" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AU89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG89" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BH89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI89" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>3521100545306</v>
+      </c>
+      <c r="B90" s="3">
+        <v>44454</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D90" s="3">
+        <v>35451</v>
+      </c>
+      <c r="E90" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="G90" s="2">
+        <v>2102617092</v>
+      </c>
+      <c r="H90" s="3">
+        <v>44455</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J90" s="3">
+        <v>44454</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL90" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN90" s="3">
+        <v>44454</v>
+      </c>
+      <c r="AR90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT90" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG90" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI90" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>3521101240607</v>
+      </c>
+      <c r="B91" s="3">
+        <v>44461</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" s="3">
+        <v>42752</v>
+      </c>
+      <c r="E91" s="3">
+        <v>44456</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G91" s="2">
+        <v>2102672853</v>
+      </c>
+      <c r="H91" s="3">
+        <v>44462</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J91" s="3">
+        <v>44462</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN91" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AR91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS91" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT91" s="3">
+        <v>44462</v>
+      </c>
+      <c r="AU91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG91" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BH91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI91" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>3521101051075</v>
+      </c>
+      <c r="B92" s="3">
+        <v>44460</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D92" s="3">
+        <v>25127</v>
+      </c>
+      <c r="E92" s="3">
+        <v>44457</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G92" s="2">
+        <v>2102467158</v>
+      </c>
+      <c r="H92" s="3">
+        <v>44461</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J92" s="3">
+        <v>44460</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN92" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AR92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT92" s="3">
+        <v>44460</v>
+      </c>
+      <c r="AU92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG92" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BH92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI92" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>3521100647878</v>
+      </c>
+      <c r="B93" s="3">
+        <v>44455</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="3">
+        <v>30572</v>
+      </c>
+      <c r="E93" s="3">
+        <v>44455</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G93" s="2">
+        <v>2102625219</v>
+      </c>
+      <c r="H93" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="3">
+        <v>44455</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN93" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AR93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS93" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT93" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AU93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG93" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BH93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI93" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>3521100730124</v>
+      </c>
+      <c r="B94" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D94" s="3">
+        <v>42772</v>
+      </c>
+      <c r="E94" s="3">
+        <v>44452</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G94" s="2">
+        <v>2102625249</v>
+      </c>
+      <c r="H94" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J94" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN94" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT94" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AU94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG94" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BH94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI94" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>3521100749803</v>
+      </c>
+      <c r="B95" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" s="3">
+        <v>31599</v>
+      </c>
+      <c r="E95" s="3">
+        <v>44454</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G95" s="2">
+        <v>2102654247</v>
+      </c>
+      <c r="H95" s="3">
+        <v>44457</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J95" s="3">
+        <v>44455</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI95" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AL95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN95" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AR95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT95" s="3">
+        <v>44455</v>
+      </c>
+      <c r="AX95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ95" s="3">
+        <v>44455</v>
+      </c>
+      <c r="BA95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG95" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="BH95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI95" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>3521100755899</v>
+      </c>
+      <c r="B96" s="3">
+        <v>44456</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D96" s="3">
+        <v>33950</v>
+      </c>
+      <c r="E96" s="3">
+        <v>44454</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G96" s="2">
+        <v>2102654248</v>
+      </c>
+      <c r="H96" s="3">
+        <v>44456</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J96" s="3">
+        <v>44456</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI96" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AL96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN96" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AR96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT96" s="3">
+        <v>44456</v>
+      </c>
+      <c r="AX96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ96" s="3">
+        <v>44456</v>
+      </c>
+      <c r="BA96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG96" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI96" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>